--- a/input/HyperbolicSine1.xlsx
+++ b/input/HyperbolicSine1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>-2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0593172373048948</v>
+        <v>0.07206204654897827</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.462159133944487</v>
+        <v>-7.268604489308395</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6689554831113684</v>
+        <v>1.080217527560668</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>-1.789473684210526</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02626016266275465</v>
+        <v>0.06360257439174907</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.942011717167584</v>
+        <v>-5.821495374793575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.846517911255778</v>
+        <v>0.6526024569378328</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>-1.578947368421053</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02726461298313476</v>
+        <v>0.03185079623909565</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.752354613708805</v>
+        <v>-4.636029275706818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3968153985678347</v>
+        <v>0.4532677099663868</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>-1.368421052631579</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05404523061633849</v>
+        <v>0.06239001471151637</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.568507019376205</v>
+        <v>-3.547987541353218</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3008121045811376</v>
+        <v>0.4630013904310029</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>-1.157894736842105</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0532105905582667</v>
+        <v>0.03180531377609405</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.909061470167509</v>
+        <v>-2.920083701141636</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1569608908044635</v>
+        <v>0.3874397482008062</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>-0.9473684210526316</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03519581575484648</v>
+        <v>0.03262772940045123</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.108397653072223</v>
+        <v>-2.243220563562845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11010839826388</v>
+        <v>0.2442271716550833</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>-0.736842105263158</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03858895686488755</v>
+        <v>0.03524416060046009</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.639816180002265</v>
+        <v>-1.619903500917138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09316164620375404</v>
+        <v>0.1875941329790004</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>-0.5263157894736843</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03034150974272351</v>
+        <v>0.02578820514380926</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.051429991661533</v>
+        <v>-1.080191826876142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1425740868174526</v>
+        <v>0.1208157567186046</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>-0.3157894736842106</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0330449618930362</v>
+        <v>0.03860807742207144</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5179311448082076</v>
+        <v>-0.5657305909400557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02611459329152977</v>
+        <v>0.06691744012641497</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>-0.1052631578947369</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03613231306633308</v>
+        <v>0.03399631035228703</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1358994483430157</v>
+        <v>-0.3026927446299457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01807579472101323</v>
+        <v>0.03771603205386091</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>0.1052631578947367</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0711709810450632</v>
+        <v>0.04405952956379752</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1892208171215246</v>
+        <v>0.08833350720392884</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01093120202013006</v>
+        <v>0.009784809329549084</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>0.3157894736842106</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0496543015507485</v>
+        <v>0.03946391287327365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5023426405594379</v>
+        <v>0.6336856394345912</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02888767167475173</v>
+        <v>0.07209904453772546</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>0.5263157894736841</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04408063710008535</v>
+        <v>0.06730611017008925</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9532274957941926</v>
+        <v>1.14481553519387</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1084239069690759</v>
+        <v>0.08897525267211621</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>0.7368421052631575</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03709847552663221</v>
+        <v>0.03567449926840217</v>
       </c>
       <c r="C15" t="n">
-        <v>1.642972905240252</v>
+        <v>1.398751566532662</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1861647370955519</v>
+        <v>0.1106277072034678</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>0.9473684210526314</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02558143065545817</v>
+        <v>0.0353629329142244</v>
       </c>
       <c r="C16" t="n">
-        <v>2.262237912860908</v>
+        <v>2.050373643860772</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2012260263791577</v>
+        <v>0.1253059262376374</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>1.157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04069379081345291</v>
+        <v>0.06107668597927941</v>
       </c>
       <c r="C17" t="n">
-        <v>2.895170679738159</v>
+        <v>2.789130981393789</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4003399167955541</v>
+        <v>0.3781280492398744</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>1.368421052631579</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05305194217015553</v>
+        <v>0.07005319487477937</v>
       </c>
       <c r="C18" t="n">
-        <v>3.646717979057335</v>
+        <v>3.74785824886251</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2934054289936617</v>
+        <v>0.4706154026733314</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>1.578947368421052</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0674493146984841</v>
+        <v>0.05932635130636818</v>
       </c>
       <c r="C19" t="n">
-        <v>4.729274283605116</v>
+        <v>4.463304770990232</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6336593220427647</v>
+        <v>0.3166609705400714</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>1.789473684210526</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03199277239868831</v>
+        <v>0.04823075933267564</v>
       </c>
       <c r="C20" t="n">
-        <v>6.020109931619372</v>
+        <v>5.843529599134729</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6516634133636203</v>
+        <v>0.736505663861722</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>2</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05944980188196293</v>
+        <v>0.03485852443155366</v>
       </c>
       <c r="C21" t="n">
-        <v>7.13376530087248</v>
+        <v>7.377097950475123</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6763374373414058</v>
+        <v>1.060502267677384</v>
       </c>
     </row>
   </sheetData>
